--- a/biology/Botanique/Chicorée_scarole/Chicorée_scarole.xlsx
+++ b/biology/Botanique/Chicorée_scarole/Chicorée_scarole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chicor%C3%A9e_scarole</t>
+          <t>Chicorée_scarole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La scarole ou chicorée scarole est une variété de salade à grandes feuilles frisées et croquantes couramment cultivée. Les feuilles intérieures sont plus pâles et beaucoup moins amères que les feuilles extérieures[1]. Sur le plan botanique, c'est une sous-espèce de la chicorée endive dont il existe de nombreuses variétés. C'est un légume qui se cultive principalement à l'automne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La scarole ou chicorée scarole est une variété de salade à grandes feuilles frisées et croquantes couramment cultivée. Les feuilles intérieures sont plus pâles et beaucoup moins amères que les feuilles extérieures. Sur le plan botanique, c'est une sous-espèce de la chicorée endive dont il existe de nombreuses variétés. C'est un légume qui se cultive principalement à l'automne.
 Nom scientifique : Cichorium endivia var. latifolium, famille des Asteraceae.
 Noms vernaculaires : scarole, escarole, chicorée blanche, endive à larges feuilles.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chicor%C3%A9e_scarole</t>
+          <t>Chicorée_scarole</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée à nombreuses feuilles vertes croquantes légèrement ondulées disposées en rosette. Son cœur a des feuilles blanches bordées de jaune.
 Saveur légèrement amère.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chicor%C3%A9e_scarole</t>
+          <t>Chicorée_scarole</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2023, 24 variétés sont inscrites au Catalogue français dont : Blonde à cœur plein, Cornet d'Anjou, Cornet de Bordeaux, Géante maraîchère, Grosse bouclée 2 , et de nombreuses variétés améliorées comme Alexia, Allure, Aranza, Gargantua, Lempika, Maruchka, etc[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2023, 24 variétés sont inscrites au Catalogue français dont : Blonde à cœur plein, Cornet d'Anjou, Cornet de Bordeaux, Géante maraîchère, Grosse bouclée 2 , et de nombreuses variétés améliorées comme Alexia, Allure, Aranza, Gargantua, Lempika, Maruchka, etc
 .
 </t>
         </is>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chicor%C3%A9e_scarole</t>
+          <t>Chicorée_scarole</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Utilisations culinaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est habituellement servie crue avec un assaisonnement relevé à la moutarde ou à l'échalote, mais on peut aussi bien la cuire, elle gardera toute sa saveur. C'est une source élevée de potassium et d'acide folique[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est habituellement servie crue avec un assaisonnement relevé à la moutarde ou à l'échalote, mais on peut aussi bien la cuire, elle gardera toute sa saveur. C'est une source élevée de potassium et d'acide folique.
 </t>
         </is>
       </c>
